--- a/polosaomiguel.xlsx
+++ b/polosaomiguel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b9c5cb4a62800de0/Desktop/RepoNOvo/pandastest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="159" documentId="8_{154E9F5E-6070-441A-966F-73CFEFA71421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E462602C-F605-4138-BB58-3D8F5B62279E}"/>
+  <xr:revisionPtr revIDLastSave="173" documentId="8_{154E9F5E-6070-441A-966F-73CFEFA71421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54366299-BA8F-470D-935D-83D4A3BA542D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{14D27C5C-7C50-498F-A52C-EE811162B8B5}"/>
   </bookViews>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
-    <t>executivos</t>
-  </si>
-  <si>
     <t>Marcela</t>
   </si>
   <si>
@@ -96,6 +93,9 @@
   </si>
   <si>
     <t>VIP</t>
+  </si>
+  <si>
+    <t>executivo</t>
   </si>
 </sst>
 </file>
@@ -477,52 +477,51 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.88671875" customWidth="1"/>
-    <col min="2" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="7" width="9" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="9" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" t="s">
         <v>15</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>9</v>
@@ -531,7 +530,7 @@
         <v>9</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F2">
         <v>11</v>
@@ -544,15 +543,15 @@
       </c>
       <c r="I2">
         <f>SUM(C2:E2)*100</f>
-        <v>2000</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>8</v>
@@ -561,7 +560,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F3">
         <v>18</v>
@@ -574,15 +573,15 @@
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I10" si="0">SUM(C3:E3)*100</f>
-        <v>1700</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -609,10 +608,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -639,19 +638,19 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="E6">
         <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6">
-        <v>9</v>
-      </c>
-      <c r="D6">
-        <v>9</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
       </c>
       <c r="F6">
         <v>18</v>
@@ -664,15 +663,15 @@
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
-        <v>1900</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -699,10 +698,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <v>9</v>
@@ -729,10 +728,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -759,10 +758,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <v>5</v>

--- a/polosaomiguel.xlsx
+++ b/polosaomiguel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b9c5cb4a62800de0/Desktop/RepoNOvo/pandastest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="173" documentId="8_{154E9F5E-6070-441A-966F-73CFEFA71421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54366299-BA8F-470D-935D-83D4A3BA542D}"/>
+  <xr:revisionPtr revIDLastSave="175" documentId="8_{154E9F5E-6070-441A-966F-73CFEFA71421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44DB6C58-2AEB-442E-BC92-D0E6AE74AA4A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{14D27C5C-7C50-498F-A52C-EE811162B8B5}"/>
   </bookViews>
@@ -477,7 +477,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -560,7 +560,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F3">
         <v>18</v>
@@ -573,7 +573,7 @@
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I10" si="0">SUM(C3:E3)*100</f>
-        <v>2200</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -650,7 +650,7 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>18</v>
@@ -663,7 +663,7 @@
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
-        <v>2300</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">

--- a/polosaomiguel.xlsx
+++ b/polosaomiguel.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b9c5cb4a62800de0/Desktop/RepoNOvo/pandastest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="175" documentId="8_{154E9F5E-6070-441A-966F-73CFEFA71421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44DB6C58-2AEB-442E-BC92-D0E6AE74AA4A}"/>
+  <xr:revisionPtr revIDLastSave="179" documentId="8_{154E9F5E-6070-441A-966F-73CFEFA71421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4B67908-3856-4C4B-A2A7-0D446958114D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{14D27C5C-7C50-498F-A52C-EE811162B8B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -151,6 +154,671 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="M1 EXECUTIVOS"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>Marcela</v>
+          </cell>
+          <cell r="F2">
+            <v>12338</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>Marcela</v>
+          </cell>
+          <cell r="F3">
+            <v>11034</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>Marcela</v>
+          </cell>
+          <cell r="F4">
+            <v>13976</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>Marcela</v>
+          </cell>
+          <cell r="F5">
+            <v>10393</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>Marcela</v>
+          </cell>
+          <cell r="F6">
+            <v>14371</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>Marcela</v>
+          </cell>
+          <cell r="F7">
+            <v>7157</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>Marcela</v>
+          </cell>
+          <cell r="F8">
+            <v>9423</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>Marcela</v>
+          </cell>
+          <cell r="F9">
+            <v>7814</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>Marcela</v>
+          </cell>
+          <cell r="F10">
+            <v>4812</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>Eder</v>
+          </cell>
+          <cell r="F11">
+            <v>9617</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>Eder</v>
+          </cell>
+          <cell r="F12">
+            <v>18975</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>Eder</v>
+          </cell>
+          <cell r="F13">
+            <v>9832</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>Eder</v>
+          </cell>
+          <cell r="F14">
+            <v>7402</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>Eder</v>
+          </cell>
+          <cell r="F15">
+            <v>8715</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>Eder</v>
+          </cell>
+          <cell r="F16">
+            <v>13683</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>Eder</v>
+          </cell>
+          <cell r="F17">
+            <v>8174</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>Eder</v>
+          </cell>
+          <cell r="F18">
+            <v>8430</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>Eder</v>
+          </cell>
+          <cell r="F19">
+            <v>8153</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>Vitória</v>
+          </cell>
+          <cell r="F20">
+            <v>15834</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>Vitória</v>
+          </cell>
+          <cell r="F21">
+            <v>5273</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>Vitória</v>
+          </cell>
+          <cell r="F22">
+            <v>17807</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>Vitória</v>
+          </cell>
+          <cell r="F23">
+            <v>2869</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>Vitória</v>
+          </cell>
+          <cell r="F24">
+            <v>9592</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>Vitória</v>
+          </cell>
+          <cell r="F25">
+            <v>7506</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>Vitória</v>
+          </cell>
+          <cell r="F26">
+            <v>12779</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>Vitória</v>
+          </cell>
+          <cell r="F27">
+            <v>15381</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>Vitória</v>
+          </cell>
+          <cell r="F28">
+            <v>15241</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>Janaina</v>
+          </cell>
+          <cell r="F29">
+            <v>15045</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>Janaina</v>
+          </cell>
+          <cell r="F30">
+            <v>12365</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>Janaina</v>
+          </cell>
+          <cell r="F31">
+            <v>5240</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>Janaina</v>
+          </cell>
+          <cell r="F32">
+            <v>14393</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>Janaina</v>
+          </cell>
+          <cell r="F33">
+            <v>10252</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>Janaina</v>
+          </cell>
+          <cell r="F34">
+            <v>9228</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>Janaina</v>
+          </cell>
+          <cell r="F35">
+            <v>13581</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>Janaina</v>
+          </cell>
+          <cell r="F36">
+            <v>11152</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>Janaina</v>
+          </cell>
+          <cell r="F37">
+            <v>6427</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>Tatiana</v>
+          </cell>
+          <cell r="F38">
+            <v>7346</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v>Tatiana</v>
+          </cell>
+          <cell r="F39">
+            <v>15907</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="str">
+            <v>Tatiana</v>
+          </cell>
+          <cell r="F40">
+            <v>18064</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41" t="str">
+            <v>Tatiana</v>
+          </cell>
+          <cell r="F41">
+            <v>11537</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42" t="str">
+            <v>Tatiana</v>
+          </cell>
+          <cell r="F42">
+            <v>12444</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43" t="str">
+            <v>Tatiana</v>
+          </cell>
+          <cell r="F43">
+            <v>8907</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44" t="str">
+            <v>Tatiana</v>
+          </cell>
+          <cell r="F44">
+            <v>4740</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45" t="str">
+            <v>Tatiana</v>
+          </cell>
+          <cell r="F45">
+            <v>6466</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46" t="str">
+            <v>Tatiana</v>
+          </cell>
+          <cell r="F46">
+            <v>13361</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47" t="str">
+            <v>Ronaldo</v>
+          </cell>
+          <cell r="F47">
+            <v>4979</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48" t="str">
+            <v>Ronaldo</v>
+          </cell>
+          <cell r="F48">
+            <v>16377</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49" t="str">
+            <v>Ronaldo</v>
+          </cell>
+          <cell r="F49">
+            <v>9896</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50" t="str">
+            <v>Ronaldo</v>
+          </cell>
+          <cell r="F50">
+            <v>11616</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51" t="str">
+            <v>Ronaldo</v>
+          </cell>
+          <cell r="F51">
+            <v>10374</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52" t="str">
+            <v>Ronaldo</v>
+          </cell>
+          <cell r="F52">
+            <v>5261</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53" t="str">
+            <v>Ronaldo</v>
+          </cell>
+          <cell r="F53">
+            <v>5218</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54" t="str">
+            <v>Ronaldo</v>
+          </cell>
+          <cell r="F54">
+            <v>9203</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55" t="str">
+            <v>Ronaldo</v>
+          </cell>
+          <cell r="F55">
+            <v>15535</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56" t="str">
+            <v>Washington</v>
+          </cell>
+          <cell r="F56">
+            <v>9080</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57" t="str">
+            <v>Washington</v>
+          </cell>
+          <cell r="F57">
+            <v>3139</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58" t="str">
+            <v>Washington</v>
+          </cell>
+          <cell r="F58">
+            <v>10478</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59" t="str">
+            <v>Washington</v>
+          </cell>
+          <cell r="F59">
+            <v>11465</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60" t="str">
+            <v>Washington</v>
+          </cell>
+          <cell r="F60">
+            <v>8960</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61" t="str">
+            <v>Washington</v>
+          </cell>
+          <cell r="F61">
+            <v>11476</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62" t="str">
+            <v>Washington</v>
+          </cell>
+          <cell r="F62">
+            <v>12818</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63" t="str">
+            <v>Washington</v>
+          </cell>
+          <cell r="F63">
+            <v>17375</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64" t="str">
+            <v>Washington</v>
+          </cell>
+          <cell r="F64">
+            <v>15863</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65" t="str">
+            <v>Emerson</v>
+          </cell>
+          <cell r="F65">
+            <v>11521</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66" t="str">
+            <v>Emerson</v>
+          </cell>
+          <cell r="F66">
+            <v>12205</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67" t="str">
+            <v>Emerson</v>
+          </cell>
+          <cell r="F67">
+            <v>5745</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68" t="str">
+            <v>Emerson</v>
+          </cell>
+          <cell r="F68">
+            <v>11556</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69" t="str">
+            <v>Emerson</v>
+          </cell>
+          <cell r="F69">
+            <v>12779</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70" t="str">
+            <v>Emerson</v>
+          </cell>
+          <cell r="F70">
+            <v>9492</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71" t="str">
+            <v>Emerson</v>
+          </cell>
+          <cell r="F71">
+            <v>6618</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72" t="str">
+            <v>Emerson</v>
+          </cell>
+          <cell r="F72">
+            <v>13207</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73" t="str">
+            <v>Emerson</v>
+          </cell>
+          <cell r="F73">
+            <v>19501</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74" t="str">
+            <v>Emily</v>
+          </cell>
+          <cell r="F74">
+            <v>9860</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75" t="str">
+            <v>Emily</v>
+          </cell>
+          <cell r="F75">
+            <v>6285</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76" t="str">
+            <v>Emily</v>
+          </cell>
+          <cell r="F76">
+            <v>3033</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77" t="str">
+            <v>Emily</v>
+          </cell>
+          <cell r="F77">
+            <v>10180</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78" t="str">
+            <v>Emily</v>
+          </cell>
+          <cell r="F78">
+            <v>11208</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79" t="str">
+            <v>Emily</v>
+          </cell>
+          <cell r="F79">
+            <v>10038</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80" t="str">
+            <v>Emily</v>
+          </cell>
+          <cell r="F80">
+            <v>13462</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81" t="str">
+            <v>Emily</v>
+          </cell>
+          <cell r="F81">
+            <v>10064</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82" t="str">
+            <v>Emily</v>
+          </cell>
+          <cell r="F82">
+            <v>14042</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -477,7 +1145,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -530,7 +1198,8 @@
         <v>9</v>
       </c>
       <c r="E2">
-        <v>9</v>
+        <f ca="1">COUNTIFS('[1]M1 EXECUTIVOS'!$F$2:$F$82,"&gt;10000",'[1]M1 EXECUTIVOS'!$A$2:$A$82,A2)</f>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>11</v>
@@ -542,8 +1211,8 @@
         <v>9</v>
       </c>
       <c r="I2">
-        <f>SUM(C2:E2)*100</f>
-        <v>2700</v>
+        <f ca="1">SUM(C2:E2)*100</f>
+        <v>2300</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -560,7 +1229,8 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <f ca="1">COUNTIFS('[1]M1 EXECUTIVOS'!$F$2:$F$82,"&gt;10000",'[1]M1 EXECUTIVOS'!$A$2:$A$82,A3)</f>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>18</v>
@@ -572,8 +1242,8 @@
         <v>9</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I10" si="0">SUM(C3:E3)*100</f>
-        <v>1700</v>
+        <f t="shared" ref="I3:I10" ca="1" si="0">SUM(C3:E3)*100</f>
+        <v>1500</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -590,7 +1260,8 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <f ca="1">COUNTIFS('[1]M1 EXECUTIVOS'!$F$2:$F$82,"&gt;10000",'[1]M1 EXECUTIVOS'!$A$2:$A$82,A4)</f>
+        <v>5</v>
       </c>
       <c r="F4">
         <v>12</v>
@@ -602,8 +1273,8 @@
         <v>6</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
-        <v>700</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>900</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -620,7 +1291,8 @@
         <v>6</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <f ca="1">COUNTIFS('[1]M1 EXECUTIVOS'!$F$2:$F$82,"&gt;10000",'[1]M1 EXECUTIVOS'!$A$2:$A$82,A5)</f>
+        <v>6</v>
       </c>
       <c r="F5">
         <v>16</v>
@@ -632,8 +1304,8 @@
         <v>7</v>
       </c>
       <c r="I5">
-        <f t="shared" si="0"/>
-        <v>1700</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1800</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -650,7 +1322,8 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <f ca="1">COUNTIFS('[1]M1 EXECUTIVOS'!$F$2:$F$82,"&gt;10000",'[1]M1 EXECUTIVOS'!$A$2:$A$82,A6)</f>
+        <v>5</v>
       </c>
       <c r="F6">
         <v>18</v>
@@ -662,8 +1335,8 @@
         <v>5</v>
       </c>
       <c r="I6">
-        <f t="shared" si="0"/>
-        <v>2100</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2300</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -680,7 +1353,8 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <f ca="1">COUNTIFS('[1]M1 EXECUTIVOS'!$F$2:$F$82,"&gt;10000",'[1]M1 EXECUTIVOS'!$A$2:$A$82,A7)</f>
+        <v>4</v>
       </c>
       <c r="F7">
         <v>9</v>
@@ -692,8 +1366,8 @@
         <v>9</v>
       </c>
       <c r="I7">
-        <f t="shared" si="0"/>
-        <v>500</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>800</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -710,7 +1384,8 @@
         <v>7</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <f ca="1">COUNTIFS('[1]M1 EXECUTIVOS'!$F$2:$F$82,"&gt;10000",'[1]M1 EXECUTIVOS'!$A$2:$A$82,A8)</f>
+        <v>6</v>
       </c>
       <c r="F8">
         <v>19</v>
@@ -722,8 +1397,8 @@
         <v>8</v>
       </c>
       <c r="I8">
-        <f t="shared" si="0"/>
-        <v>1900</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2200</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -740,7 +1415,8 @@
         <v>5</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <f ca="1">COUNTIFS('[1]M1 EXECUTIVOS'!$F$2:$F$82,"&gt;10000",'[1]M1 EXECUTIVOS'!$A$2:$A$82,A9)</f>
+        <v>6</v>
       </c>
       <c r="F9">
         <v>13</v>
@@ -752,8 +1428,8 @@
         <v>7</v>
       </c>
       <c r="I9">
-        <f t="shared" si="0"/>
-        <v>1600</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1700</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -770,7 +1446,8 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <f ca="1">COUNTIFS('[1]M1 EXECUTIVOS'!$F$2:$F$82,"&gt;10000",'[1]M1 EXECUTIVOS'!$A$2:$A$82,A10)</f>
+        <v>6</v>
       </c>
       <c r="F10">
         <v>17</v>
@@ -782,8 +1459,8 @@
         <v>8</v>
       </c>
       <c r="I10">
-        <f t="shared" si="0"/>
-        <v>1100</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1400</v>
       </c>
     </row>
   </sheetData>

--- a/polosaomiguel.xlsx
+++ b/polosaomiguel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b9c5cb4a62800de0/Desktop/RepoNOvo/pandastest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="179" documentId="8_{154E9F5E-6070-441A-966F-73CFEFA71421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4B67908-3856-4C4B-A2A7-0D446958114D}"/>
+  <xr:revisionPtr revIDLastSave="181" documentId="8_{154E9F5E-6070-441A-966F-73CFEFA71421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29ADC53D-D610-4C82-A75C-24AE2FCE9BCB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{14D27C5C-7C50-498F-A52C-EE811162B8B5}"/>
   </bookViews>
@@ -172,7 +172,7 @@
             <v>Marcela</v>
           </cell>
           <cell r="F2">
-            <v>12338</v>
+            <v>14426</v>
           </cell>
         </row>
         <row r="3">
@@ -180,7 +180,7 @@
             <v>Marcela</v>
           </cell>
           <cell r="F3">
-            <v>11034</v>
+            <v>11114</v>
           </cell>
         </row>
         <row r="4">
@@ -188,7 +188,7 @@
             <v>Marcela</v>
           </cell>
           <cell r="F4">
-            <v>13976</v>
+            <v>15562</v>
           </cell>
         </row>
         <row r="5">
@@ -196,7 +196,7 @@
             <v>Marcela</v>
           </cell>
           <cell r="F5">
-            <v>10393</v>
+            <v>13362</v>
           </cell>
         </row>
         <row r="6">
@@ -204,7 +204,7 @@
             <v>Marcela</v>
           </cell>
           <cell r="F6">
-            <v>14371</v>
+            <v>8117</v>
           </cell>
         </row>
         <row r="7">
@@ -212,7 +212,7 @@
             <v>Marcela</v>
           </cell>
           <cell r="F7">
-            <v>7157</v>
+            <v>8103</v>
           </cell>
         </row>
         <row r="8">
@@ -220,7 +220,7 @@
             <v>Marcela</v>
           </cell>
           <cell r="F8">
-            <v>9423</v>
+            <v>2182</v>
           </cell>
         </row>
         <row r="9">
@@ -228,7 +228,7 @@
             <v>Marcela</v>
           </cell>
           <cell r="F9">
-            <v>7814</v>
+            <v>17870</v>
           </cell>
         </row>
         <row r="10">
@@ -236,7 +236,7 @@
             <v>Marcela</v>
           </cell>
           <cell r="F10">
-            <v>4812</v>
+            <v>17622</v>
           </cell>
         </row>
         <row r="11">
@@ -244,7 +244,7 @@
             <v>Eder</v>
           </cell>
           <cell r="F11">
-            <v>9617</v>
+            <v>9065</v>
           </cell>
         </row>
         <row r="12">
@@ -252,7 +252,7 @@
             <v>Eder</v>
           </cell>
           <cell r="F12">
-            <v>18975</v>
+            <v>16965</v>
           </cell>
         </row>
         <row r="13">
@@ -260,7 +260,7 @@
             <v>Eder</v>
           </cell>
           <cell r="F13">
-            <v>9832</v>
+            <v>12883</v>
           </cell>
         </row>
         <row r="14">
@@ -268,7 +268,7 @@
             <v>Eder</v>
           </cell>
           <cell r="F14">
-            <v>7402</v>
+            <v>9243</v>
           </cell>
         </row>
         <row r="15">
@@ -276,7 +276,7 @@
             <v>Eder</v>
           </cell>
           <cell r="F15">
-            <v>8715</v>
+            <v>10574</v>
           </cell>
         </row>
         <row r="16">
@@ -284,7 +284,7 @@
             <v>Eder</v>
           </cell>
           <cell r="F16">
-            <v>13683</v>
+            <v>9455</v>
           </cell>
         </row>
         <row r="17">
@@ -292,7 +292,7 @@
             <v>Eder</v>
           </cell>
           <cell r="F17">
-            <v>8174</v>
+            <v>8536</v>
           </cell>
         </row>
         <row r="18">
@@ -300,7 +300,7 @@
             <v>Eder</v>
           </cell>
           <cell r="F18">
-            <v>8430</v>
+            <v>4632</v>
           </cell>
         </row>
         <row r="19">
@@ -308,7 +308,7 @@
             <v>Eder</v>
           </cell>
           <cell r="F19">
-            <v>8153</v>
+            <v>5086</v>
           </cell>
         </row>
         <row r="20">
@@ -316,7 +316,7 @@
             <v>Vitória</v>
           </cell>
           <cell r="F20">
-            <v>15834</v>
+            <v>16808</v>
           </cell>
         </row>
         <row r="21">
@@ -324,7 +324,7 @@
             <v>Vitória</v>
           </cell>
           <cell r="F21">
-            <v>5273</v>
+            <v>8820</v>
           </cell>
         </row>
         <row r="22">
@@ -332,7 +332,7 @@
             <v>Vitória</v>
           </cell>
           <cell r="F22">
-            <v>17807</v>
+            <v>5811</v>
           </cell>
         </row>
         <row r="23">
@@ -340,7 +340,7 @@
             <v>Vitória</v>
           </cell>
           <cell r="F23">
-            <v>2869</v>
+            <v>10054</v>
           </cell>
         </row>
         <row r="24">
@@ -348,7 +348,7 @@
             <v>Vitória</v>
           </cell>
           <cell r="F24">
-            <v>9592</v>
+            <v>8804</v>
           </cell>
         </row>
         <row r="25">
@@ -356,7 +356,7 @@
             <v>Vitória</v>
           </cell>
           <cell r="F25">
-            <v>7506</v>
+            <v>5034</v>
           </cell>
         </row>
         <row r="26">
@@ -364,7 +364,7 @@
             <v>Vitória</v>
           </cell>
           <cell r="F26">
-            <v>12779</v>
+            <v>10169</v>
           </cell>
         </row>
         <row r="27">
@@ -372,7 +372,7 @@
             <v>Vitória</v>
           </cell>
           <cell r="F27">
-            <v>15381</v>
+            <v>9440</v>
           </cell>
         </row>
         <row r="28">
@@ -380,7 +380,7 @@
             <v>Vitória</v>
           </cell>
           <cell r="F28">
-            <v>15241</v>
+            <v>7458</v>
           </cell>
         </row>
         <row r="29">
@@ -388,7 +388,7 @@
             <v>Janaina</v>
           </cell>
           <cell r="F29">
-            <v>15045</v>
+            <v>9262</v>
           </cell>
         </row>
         <row r="30">
@@ -396,7 +396,7 @@
             <v>Janaina</v>
           </cell>
           <cell r="F30">
-            <v>12365</v>
+            <v>12462</v>
           </cell>
         </row>
         <row r="31">
@@ -404,7 +404,7 @@
             <v>Janaina</v>
           </cell>
           <cell r="F31">
-            <v>5240</v>
+            <v>13453</v>
           </cell>
         </row>
         <row r="32">
@@ -412,7 +412,7 @@
             <v>Janaina</v>
           </cell>
           <cell r="F32">
-            <v>14393</v>
+            <v>16845</v>
           </cell>
         </row>
         <row r="33">
@@ -420,7 +420,7 @@
             <v>Janaina</v>
           </cell>
           <cell r="F33">
-            <v>10252</v>
+            <v>7484</v>
           </cell>
         </row>
         <row r="34">
@@ -428,7 +428,7 @@
             <v>Janaina</v>
           </cell>
           <cell r="F34">
-            <v>9228</v>
+            <v>7656</v>
           </cell>
         </row>
         <row r="35">
@@ -436,7 +436,7 @@
             <v>Janaina</v>
           </cell>
           <cell r="F35">
-            <v>13581</v>
+            <v>13052</v>
           </cell>
         </row>
         <row r="36">
@@ -444,7 +444,7 @@
             <v>Janaina</v>
           </cell>
           <cell r="F36">
-            <v>11152</v>
+            <v>8373</v>
           </cell>
         </row>
         <row r="37">
@@ -452,7 +452,7 @@
             <v>Janaina</v>
           </cell>
           <cell r="F37">
-            <v>6427</v>
+            <v>14586</v>
           </cell>
         </row>
         <row r="38">
@@ -460,7 +460,7 @@
             <v>Tatiana</v>
           </cell>
           <cell r="F38">
-            <v>7346</v>
+            <v>6244</v>
           </cell>
         </row>
         <row r="39">
@@ -468,7 +468,7 @@
             <v>Tatiana</v>
           </cell>
           <cell r="F39">
-            <v>15907</v>
+            <v>9794</v>
           </cell>
         </row>
         <row r="40">
@@ -476,7 +476,7 @@
             <v>Tatiana</v>
           </cell>
           <cell r="F40">
-            <v>18064</v>
+            <v>4522</v>
           </cell>
         </row>
         <row r="41">
@@ -484,7 +484,7 @@
             <v>Tatiana</v>
           </cell>
           <cell r="F41">
-            <v>11537</v>
+            <v>12206</v>
           </cell>
         </row>
         <row r="42">
@@ -492,7 +492,7 @@
             <v>Tatiana</v>
           </cell>
           <cell r="F42">
-            <v>12444</v>
+            <v>10350</v>
           </cell>
         </row>
         <row r="43">
@@ -500,7 +500,7 @@
             <v>Tatiana</v>
           </cell>
           <cell r="F43">
-            <v>8907</v>
+            <v>11002</v>
           </cell>
         </row>
         <row r="44">
@@ -508,7 +508,7 @@
             <v>Tatiana</v>
           </cell>
           <cell r="F44">
-            <v>4740</v>
+            <v>3686</v>
           </cell>
         </row>
         <row r="45">
@@ -516,7 +516,7 @@
             <v>Tatiana</v>
           </cell>
           <cell r="F45">
-            <v>6466</v>
+            <v>11391</v>
           </cell>
         </row>
         <row r="46">
@@ -524,7 +524,7 @@
             <v>Tatiana</v>
           </cell>
           <cell r="F46">
-            <v>13361</v>
+            <v>13577</v>
           </cell>
         </row>
         <row r="47">
@@ -532,7 +532,7 @@
             <v>Ronaldo</v>
           </cell>
           <cell r="F47">
-            <v>4979</v>
+            <v>9457</v>
           </cell>
         </row>
         <row r="48">
@@ -540,7 +540,7 @@
             <v>Ronaldo</v>
           </cell>
           <cell r="F48">
-            <v>16377</v>
+            <v>12747</v>
           </cell>
         </row>
         <row r="49">
@@ -548,7 +548,7 @@
             <v>Ronaldo</v>
           </cell>
           <cell r="F49">
-            <v>9896</v>
+            <v>7151</v>
           </cell>
         </row>
         <row r="50">
@@ -556,7 +556,7 @@
             <v>Ronaldo</v>
           </cell>
           <cell r="F50">
-            <v>11616</v>
+            <v>9093</v>
           </cell>
         </row>
         <row r="51">
@@ -564,7 +564,7 @@
             <v>Ronaldo</v>
           </cell>
           <cell r="F51">
-            <v>10374</v>
+            <v>4618</v>
           </cell>
         </row>
         <row r="52">
@@ -572,7 +572,7 @@
             <v>Ronaldo</v>
           </cell>
           <cell r="F52">
-            <v>5261</v>
+            <v>7612</v>
           </cell>
         </row>
         <row r="53">
@@ -580,7 +580,7 @@
             <v>Ronaldo</v>
           </cell>
           <cell r="F53">
-            <v>5218</v>
+            <v>6292</v>
           </cell>
         </row>
         <row r="54">
@@ -588,7 +588,7 @@
             <v>Ronaldo</v>
           </cell>
           <cell r="F54">
-            <v>9203</v>
+            <v>12028</v>
           </cell>
         </row>
         <row r="55">
@@ -596,7 +596,7 @@
             <v>Ronaldo</v>
           </cell>
           <cell r="F55">
-            <v>15535</v>
+            <v>5049</v>
           </cell>
         </row>
         <row r="56">
@@ -604,7 +604,7 @@
             <v>Washington</v>
           </cell>
           <cell r="F56">
-            <v>9080</v>
+            <v>10678</v>
           </cell>
         </row>
         <row r="57">
@@ -612,7 +612,7 @@
             <v>Washington</v>
           </cell>
           <cell r="F57">
-            <v>3139</v>
+            <v>6018</v>
           </cell>
         </row>
         <row r="58">
@@ -620,7 +620,7 @@
             <v>Washington</v>
           </cell>
           <cell r="F58">
-            <v>10478</v>
+            <v>13263</v>
           </cell>
         </row>
         <row r="59">
@@ -628,7 +628,7 @@
             <v>Washington</v>
           </cell>
           <cell r="F59">
-            <v>11465</v>
+            <v>10012</v>
           </cell>
         </row>
         <row r="60">
@@ -636,7 +636,7 @@
             <v>Washington</v>
           </cell>
           <cell r="F60">
-            <v>8960</v>
+            <v>14003</v>
           </cell>
         </row>
         <row r="61">
@@ -644,7 +644,7 @@
             <v>Washington</v>
           </cell>
           <cell r="F61">
-            <v>11476</v>
+            <v>9573</v>
           </cell>
         </row>
         <row r="62">
@@ -652,7 +652,7 @@
             <v>Washington</v>
           </cell>
           <cell r="F62">
-            <v>12818</v>
+            <v>10368</v>
           </cell>
         </row>
         <row r="63">
@@ -660,7 +660,7 @@
             <v>Washington</v>
           </cell>
           <cell r="F63">
-            <v>17375</v>
+            <v>15485</v>
           </cell>
         </row>
         <row r="64">
@@ -668,7 +668,7 @@
             <v>Washington</v>
           </cell>
           <cell r="F64">
-            <v>15863</v>
+            <v>11850</v>
           </cell>
         </row>
         <row r="65">
@@ -676,7 +676,7 @@
             <v>Emerson</v>
           </cell>
           <cell r="F65">
-            <v>11521</v>
+            <v>6649</v>
           </cell>
         </row>
         <row r="66">
@@ -684,7 +684,7 @@
             <v>Emerson</v>
           </cell>
           <cell r="F66">
-            <v>12205</v>
+            <v>9688</v>
           </cell>
         </row>
         <row r="67">
@@ -692,7 +692,7 @@
             <v>Emerson</v>
           </cell>
           <cell r="F67">
-            <v>5745</v>
+            <v>2048</v>
           </cell>
         </row>
         <row r="68">
@@ -700,7 +700,7 @@
             <v>Emerson</v>
           </cell>
           <cell r="F68">
-            <v>11556</v>
+            <v>17630</v>
           </cell>
         </row>
         <row r="69">
@@ -708,7 +708,7 @@
             <v>Emerson</v>
           </cell>
           <cell r="F69">
-            <v>12779</v>
+            <v>15623</v>
           </cell>
         </row>
         <row r="70">
@@ -716,7 +716,7 @@
             <v>Emerson</v>
           </cell>
           <cell r="F70">
-            <v>9492</v>
+            <v>12674</v>
           </cell>
         </row>
         <row r="71">
@@ -724,7 +724,7 @@
             <v>Emerson</v>
           </cell>
           <cell r="F71">
-            <v>6618</v>
+            <v>12759</v>
           </cell>
         </row>
         <row r="72">
@@ -732,7 +732,7 @@
             <v>Emerson</v>
           </cell>
           <cell r="F72">
-            <v>13207</v>
+            <v>13144</v>
           </cell>
         </row>
         <row r="73">
@@ -740,7 +740,7 @@
             <v>Emerson</v>
           </cell>
           <cell r="F73">
-            <v>19501</v>
+            <v>6043</v>
           </cell>
         </row>
         <row r="74">
@@ -748,7 +748,7 @@
             <v>Emily</v>
           </cell>
           <cell r="F74">
-            <v>9860</v>
+            <v>13216</v>
           </cell>
         </row>
         <row r="75">
@@ -756,7 +756,7 @@
             <v>Emily</v>
           </cell>
           <cell r="F75">
-            <v>6285</v>
+            <v>3111</v>
           </cell>
         </row>
         <row r="76">
@@ -764,7 +764,7 @@
             <v>Emily</v>
           </cell>
           <cell r="F76">
-            <v>3033</v>
+            <v>6851</v>
           </cell>
         </row>
         <row r="77">
@@ -772,7 +772,7 @@
             <v>Emily</v>
           </cell>
           <cell r="F77">
-            <v>10180</v>
+            <v>15932</v>
           </cell>
         </row>
         <row r="78">
@@ -780,7 +780,7 @@
             <v>Emily</v>
           </cell>
           <cell r="F78">
-            <v>11208</v>
+            <v>12598</v>
           </cell>
         </row>
         <row r="79">
@@ -788,7 +788,7 @@
             <v>Emily</v>
           </cell>
           <cell r="F79">
-            <v>10038</v>
+            <v>16020</v>
           </cell>
         </row>
         <row r="80">
@@ -796,7 +796,7 @@
             <v>Emily</v>
           </cell>
           <cell r="F80">
-            <v>13462</v>
+            <v>11171</v>
           </cell>
         </row>
         <row r="81">
@@ -804,7 +804,7 @@
             <v>Emily</v>
           </cell>
           <cell r="F81">
-            <v>10064</v>
+            <v>5730</v>
           </cell>
         </row>
         <row r="82">
@@ -812,17 +812,13 @@
             <v>Emily</v>
           </cell>
           <cell r="F82">
-            <v>14042</v>
+            <v>8404</v>
           </cell>
         </row>
       </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1145,7 +1141,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1199,7 +1195,7 @@
       </c>
       <c r="E2">
         <f ca="1">COUNTIFS('[1]M1 EXECUTIVOS'!$F$2:$F$82,"&gt;10000",'[1]M1 EXECUTIVOS'!$A$2:$A$82,A2)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2">
         <v>11</v>
@@ -1212,7 +1208,7 @@
       </c>
       <c r="I2">
         <f ca="1">SUM(C2:E2)*100</f>
-        <v>2300</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1230,7 +1226,7 @@
       </c>
       <c r="E3">
         <f ca="1">COUNTIFS('[1]M1 EXECUTIVOS'!$F$2:$F$82,"&gt;10000",'[1]M1 EXECUTIVOS'!$A$2:$A$82,A3)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>18</v>
@@ -1243,7 +1239,7 @@
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I10" ca="1" si="0">SUM(C3:E3)*100</f>
-        <v>1500</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -1261,7 +1257,7 @@
       </c>
       <c r="E4">
         <f ca="1">COUNTIFS('[1]M1 EXECUTIVOS'!$F$2:$F$82,"&gt;10000",'[1]M1 EXECUTIVOS'!$A$2:$A$82,A4)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>12</v>
@@ -1274,7 +1270,7 @@
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>900</v>
+        <v>700</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -1292,7 +1288,7 @@
       </c>
       <c r="E5">
         <f ca="1">COUNTIFS('[1]M1 EXECUTIVOS'!$F$2:$F$82,"&gt;10000",'[1]M1 EXECUTIVOS'!$A$2:$A$82,A5)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F5">
         <v>16</v>
@@ -1305,7 +1301,7 @@
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>1800</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -1354,7 +1350,7 @@
       </c>
       <c r="E7">
         <f ca="1">COUNTIFS('[1]M1 EXECUTIVOS'!$F$2:$F$82,"&gt;10000",'[1]M1 EXECUTIVOS'!$A$2:$A$82,A7)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>9</v>
@@ -1367,7 +1363,7 @@
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="0"/>
-        <v>800</v>
+        <v>600</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -1385,7 +1381,7 @@
       </c>
       <c r="E8">
         <f ca="1">COUNTIFS('[1]M1 EXECUTIVOS'!$F$2:$F$82,"&gt;10000",'[1]M1 EXECUTIVOS'!$A$2:$A$82,A8)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F8">
         <v>19</v>
@@ -1398,7 +1394,7 @@
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="0"/>
-        <v>2200</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -1416,7 +1412,7 @@
       </c>
       <c r="E9">
         <f ca="1">COUNTIFS('[1]M1 EXECUTIVOS'!$F$2:$F$82,"&gt;10000",'[1]M1 EXECUTIVOS'!$A$2:$A$82,A9)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F9">
         <v>13</v>
@@ -1429,7 +1425,7 @@
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="0"/>
-        <v>1700</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -1447,7 +1443,7 @@
       </c>
       <c r="E10">
         <f ca="1">COUNTIFS('[1]M1 EXECUTIVOS'!$F$2:$F$82,"&gt;10000",'[1]M1 EXECUTIVOS'!$A$2:$A$82,A10)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10">
         <v>17</v>
@@ -1460,7 +1456,7 @@
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="0"/>
-        <v>1400</v>
+        <v>1300</v>
       </c>
     </row>
   </sheetData>
